--- a/Annotations/Old/TinkerTailorSoldierSpy.xlsx
+++ b/Annotations/Old/TinkerTailorSoldierSpy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="TinkerTailorSoldierSpyV2" sheetId="1" r:id="rId1"/>
@@ -1872,14 +1872,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="46" style="2" customWidth="1"/>
     <col min="4" max="4" width="46" style="3" customWidth="1"/>
     <col min="5" max="5" width="46" style="2" customWidth="1"/>
@@ -1941,7 +1942,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.16357880429674077</v>
+        <v>0.34357638765238296</v>
       </c>
       <c r="B2" s="2">
         <v>111</v>
@@ -1965,7 +1966,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66751318510477198</v>
+        <v>0.42385372993167336</v>
       </c>
       <c r="B3" s="2">
         <v>270</v>
@@ -1992,7 +1993,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46602747362273567</v>
+        <v>0.92583151269232211</v>
       </c>
       <c r="B4" s="2">
         <v>282</v>
@@ -2019,7 +2020,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48353101511660279</v>
+        <v>0.19579404601200001</v>
       </c>
       <c r="B5" s="2">
         <v>268</v>
@@ -2046,7 +2047,7 @@
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32676212341720223</v>
+        <v>0.8906390539673894</v>
       </c>
       <c r="B6" s="2">
         <v>233</v>
@@ -2070,7 +2071,7 @@
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1704680998360486</v>
+        <v>0.84284897955772764</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
@@ -2097,7 +2098,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27460669342787136</v>
+        <v>0.16005161307781901</v>
       </c>
       <c r="B8" s="2">
         <v>21</v>
@@ -2124,7 +2125,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9102228633839875</v>
+        <v>0.9024519660289696</v>
       </c>
       <c r="B9" s="2">
         <v>24</v>
@@ -2148,7 +2149,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94771459705737571</v>
+        <v>0.49415807412780621</v>
       </c>
       <c r="B10" s="2">
         <v>184</v>
@@ -2175,7 +2176,7 @@
     <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50843861946397217</v>
+        <v>0.40051621336357868</v>
       </c>
       <c r="B11" s="2">
         <v>194</v>
@@ -2199,7 +2200,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39240174044991849</v>
+        <v>0.20653327280677158</v>
       </c>
       <c r="B12" s="2">
         <v>246</v>
@@ -2226,7 +2227,7 @@
     <row r="13" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33995457236853244</v>
+        <v>8.5625706863939888E-3</v>
       </c>
       <c r="B13" s="2">
         <v>161</v>
@@ -2253,7 +2254,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90268140574674882</v>
+        <v>0.57569186206703082</v>
       </c>
       <c r="B14" s="2">
         <v>248</v>
@@ -2280,7 +2281,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.618774165198396E-2</v>
+        <v>0.65302200586410575</v>
       </c>
       <c r="B15" s="2">
         <v>70</v>
@@ -2301,7 +2302,7 @@
     <row r="16" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28594469539708067</v>
+        <v>0.22928786777690524</v>
       </c>
       <c r="B16" s="2">
         <v>215</v>
@@ -2325,7 +2326,7 @@
     <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39909440657502482</v>
+        <v>0.66867526306672787</v>
       </c>
       <c r="B17" s="2">
         <v>202</v>
@@ -2349,7 +2350,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73822387986128946</v>
+        <v>8.168837259478523E-2</v>
       </c>
       <c r="B18" s="2">
         <v>243</v>
@@ -2376,7 +2377,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97344931542230528</v>
+        <v>0.24380172914946441</v>
       </c>
       <c r="B19" s="2">
         <v>67</v>
@@ -2400,7 +2401,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33543291435140321</v>
+        <v>0.15242479328547087</v>
       </c>
       <c r="B20" s="2">
         <v>279</v>
@@ -2424,7 +2425,7 @@
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49388187412459839</v>
+        <v>0.76197021378502994</v>
       </c>
       <c r="B21" s="2">
         <v>278</v>
@@ -2451,7 +2452,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5502227438290771</v>
+        <v>0.70800717000879865</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -2472,7 +2473,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2125594761233649E-2</v>
+        <v>0.78930506753621366</v>
       </c>
       <c r="B23" s="2">
         <v>82</v>
@@ -2493,7 +2494,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1754323461821543E-2</v>
+        <v>0.58162840690159123</v>
       </c>
       <c r="B24" s="2">
         <v>93</v>
@@ -2514,7 +2515,7 @@
     <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.911764772618329</v>
+        <v>0.39215233800711258</v>
       </c>
       <c r="B25" s="2">
         <v>41</v>
@@ -2535,7 +2536,7 @@
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79573802881931199</v>
+        <v>0.9384823608983861</v>
       </c>
       <c r="B26" s="2">
         <v>31</v>
@@ -2556,7 +2557,7 @@
     <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9684918771476601E-2</v>
+        <v>0.46498622372594034</v>
       </c>
       <c r="B27" s="2">
         <v>117</v>
@@ -2583,7 +2584,7 @@
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13557225609588464</v>
+        <v>0.50552679743961648</v>
       </c>
       <c r="B28" s="2">
         <v>190</v>
@@ -2604,7 +2605,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69804735194149137</v>
+        <v>0.41814155459806346</v>
       </c>
       <c r="B29" s="2">
         <v>256</v>
@@ -2628,7 +2629,7 @@
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68817989352319464</v>
+        <v>0.21485137706019963</v>
       </c>
       <c r="B30" s="2">
         <v>249</v>
@@ -2652,7 +2653,7 @@
     <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67430688053124332</v>
+        <v>0.31893282123325228</v>
       </c>
       <c r="B31" s="2">
         <v>200</v>
@@ -2676,7 +2677,7 @@
     <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29849393792338541</v>
+        <v>0.31044076198962656</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -2703,7 +2704,7 @@
     <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98275709234104347</v>
+        <v>0.17300140357671512</v>
       </c>
       <c r="B33" s="2">
         <v>297</v>
@@ -2730,7 +2731,7 @@
     <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21303068147948712</v>
+        <v>0.87549781991370446</v>
       </c>
       <c r="B34" s="2">
         <v>62</v>
@@ -2754,7 +2755,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45810485281574043</v>
+        <v>0.61890444236085518</v>
       </c>
       <c r="B35" s="2">
         <v>17</v>
@@ -2775,7 +2776,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10008890511595869</v>
+        <v>0.1058876833875857</v>
       </c>
       <c r="B36" s="2">
         <v>55</v>
@@ -2799,7 +2800,7 @@
     <row r="37" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24584925324422391</v>
+        <v>0.92226715240559054</v>
       </c>
       <c r="B37" s="2">
         <v>133</v>
@@ -2823,7 +2824,7 @@
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3243755989537207E-2</v>
+        <v>1.4422887982143417E-2</v>
       </c>
       <c r="B38" s="2">
         <v>185</v>
@@ -2847,7 +2848,7 @@
     <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4545389121054344</v>
+        <v>0.33871433694109077</v>
       </c>
       <c r="B39" s="2">
         <v>216</v>
@@ -2871,7 +2872,7 @@
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7746282006989076E-2</v>
+        <v>0.68203534169094537</v>
       </c>
       <c r="B40" s="2">
         <v>298</v>
@@ -2898,7 +2899,7 @@
     <row r="41" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80604992801476749</v>
+        <v>0.9151192353017501</v>
       </c>
       <c r="B41" s="2">
         <v>288</v>
@@ -2925,7 +2926,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23795690270970826</v>
+        <v>0.52278335258051767</v>
       </c>
       <c r="B42" s="2">
         <v>78</v>
@@ -2949,7 +2950,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28515268709228847</v>
+        <v>0.71419303459604122</v>
       </c>
       <c r="B43" s="2">
         <v>74</v>
@@ -2973,7 +2974,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6846851057400634E-2</v>
+        <v>0.16343869748472506</v>
       </c>
       <c r="B44" s="2">
         <v>251</v>
@@ -2997,7 +2998,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2188875298373878E-2</v>
+        <v>0.88159445186463581</v>
       </c>
       <c r="B45" s="2">
         <v>71</v>
@@ -3018,7 +3019,7 @@
     <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66628385984407956</v>
+        <v>0.89884104617775173</v>
       </c>
       <c r="B46" s="2">
         <v>56</v>
@@ -3042,7 +3043,7 @@
     <row r="47" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41316422790223128</v>
+        <v>0.17059732164687391</v>
       </c>
       <c r="B47" s="2">
         <v>48</v>
@@ -3066,7 +3067,7 @@
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6397174598742015E-2</v>
+        <v>0.17786759781281958</v>
       </c>
       <c r="B48" s="2">
         <v>97</v>
@@ -3093,7 +3094,7 @@
     <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23069579076313962</v>
+        <v>0.78107686779516772</v>
       </c>
       <c r="B49" s="2">
         <v>151</v>
@@ -3117,7 +3118,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9592603729672079</v>
+        <v>0.16122049995214394</v>
       </c>
       <c r="B50" s="2">
         <v>26</v>
@@ -3141,7 +3142,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81695556543451908</v>
+        <v>0.57178227122626313</v>
       </c>
       <c r="B51" s="2">
         <v>284</v>
@@ -3162,7 +3163,7 @@
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59558667112820107</v>
+        <v>0.49001628473181091</v>
       </c>
       <c r="B52" s="2">
         <v>264</v>
@@ -3183,7 +3184,7 @@
     <row r="53" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96054129607494787</v>
+        <v>0.83812886251846408</v>
       </c>
       <c r="B53" s="2">
         <v>201</v>
@@ -3210,7 +3211,7 @@
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90507498765968419</v>
+        <v>0.82261807786417462</v>
       </c>
       <c r="B54" s="2">
         <v>64</v>
@@ -3237,7 +3238,7 @@
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29061299147744757</v>
+        <v>0.1134918329886162</v>
       </c>
       <c r="B55" s="2">
         <v>124</v>
@@ -3261,7 +3262,7 @@
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84475768125736761</v>
+        <v>0.87473662082657</v>
       </c>
       <c r="B56" s="2">
         <v>25</v>
@@ -3288,7 +3289,7 @@
     <row r="57" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45393883608126395</v>
+        <v>0.95741298787149809</v>
       </c>
       <c r="B57" s="2">
         <v>7</v>
@@ -3312,7 +3313,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30730541827904334</v>
+        <v>0.27159934065324309</v>
       </c>
       <c r="B58" s="2">
         <v>207</v>
@@ -3333,7 +3334,7 @@
     <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66852989224986981</v>
+        <v>0.54649160436119559</v>
       </c>
       <c r="B59" s="2">
         <v>32</v>
@@ -3354,7 +3355,7 @@
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83702869374597022</v>
+        <v>0.16684203434572598</v>
       </c>
       <c r="B60" s="2">
         <v>68</v>
@@ -3378,7 +3379,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92103639862854114</v>
+        <v>0.21191159767214074</v>
       </c>
       <c r="B61" s="2">
         <v>245</v>
@@ -3405,7 +3406,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50718896739527419</v>
+        <v>0.70854617845341417</v>
       </c>
       <c r="B62" s="2">
         <v>127</v>
@@ -3429,7 +3430,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19507695909733558</v>
+        <v>0.74610617514467714</v>
       </c>
       <c r="B63" s="2">
         <v>92</v>
@@ -3453,7 +3454,7 @@
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31455798472946828</v>
+        <v>0.15803189604089507</v>
       </c>
       <c r="B64" s="2">
         <v>239</v>
@@ -3477,7 +3478,7 @@
     <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91981615038016207</v>
+        <v>5.6842445093167604E-2</v>
       </c>
       <c r="B65" s="2">
         <v>42</v>
@@ -3501,7 +3502,7 @@
     <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.1496681519008658</v>
+        <v>0.64143212732162558</v>
       </c>
       <c r="B66" s="2">
         <v>23</v>
@@ -3525,7 +3526,7 @@
     <row r="67" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79119420963907849</v>
+        <v>0.69465799996943678</v>
       </c>
       <c r="B67" s="2">
         <v>33</v>
@@ -3546,7 +3547,7 @@
     <row r="68" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9194008163248778</v>
+        <v>0.4171738563402787</v>
       </c>
       <c r="B68" s="2">
         <v>214</v>
@@ -3570,7 +3571,7 @@
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15696282322011534</v>
+        <v>0.64127289014546895</v>
       </c>
       <c r="B69" s="2">
         <v>36</v>
@@ -3591,7 +3592,7 @@
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22582144656432335</v>
+        <v>0.54774696150614699</v>
       </c>
       <c r="B70" s="2">
         <v>86</v>
@@ -3615,7 +3616,7 @@
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76986098491950583</v>
+        <v>0.37102091534307913</v>
       </c>
       <c r="B71" s="2">
         <v>165</v>
@@ -3639,7 +3640,7 @@
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47072225688355607</v>
+        <v>0.19625761132886721</v>
       </c>
       <c r="B72" s="2">
         <v>271</v>
@@ -3663,7 +3664,7 @@
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54253219412772813</v>
+        <v>0.83982148828224912</v>
       </c>
       <c r="B73" s="2">
         <v>76</v>
@@ -3687,7 +3688,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6366791449995151E-2</v>
+        <v>0.42940728952384422</v>
       </c>
       <c r="B74" s="2">
         <v>174</v>
@@ -3708,7 +3709,7 @@
     <row r="75" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78612704446317805</v>
+        <v>0.19878830389742275</v>
       </c>
       <c r="B75" s="2">
         <v>87</v>
@@ -3732,7 +3733,7 @@
     <row r="76" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67393636750770691</v>
+        <v>0.53765291088425637</v>
       </c>
       <c r="B76" s="2">
         <v>104</v>
@@ -3753,7 +3754,7 @@
     <row r="77" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21078918677517267</v>
+        <v>0.81343047066585272</v>
       </c>
       <c r="B77" s="2">
         <v>9</v>
@@ -3777,7 +3778,7 @@
     <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32570484921837184</v>
+        <v>0.38603616850902955</v>
       </c>
       <c r="B78" s="2">
         <v>164</v>
@@ -3801,7 +3802,7 @@
     <row r="79" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85372808134062916</v>
+        <v>0.12140903088657973</v>
       </c>
       <c r="B79" s="2">
         <v>8</v>
@@ -3831,7 +3832,7 @@
     <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99210118907713363</v>
+        <v>0.20242064734851939</v>
       </c>
       <c r="B80" s="2">
         <v>258</v>
@@ -3852,7 +3853,7 @@
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.794192887322973</v>
+        <v>0.87624468660135535</v>
       </c>
       <c r="B81" s="2">
         <v>156</v>
@@ -3876,7 +3877,7 @@
     <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89381008994190125</v>
+        <v>0.3500187787365886</v>
       </c>
       <c r="B82" s="2">
         <v>196</v>
@@ -3897,7 +3898,7 @@
     <row r="83" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23609878520993055</v>
+        <v>0.51256863766956884</v>
       </c>
       <c r="B83" s="2">
         <v>189</v>
@@ -3921,7 +3922,7 @@
     <row r="84" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8739483879307558</v>
+        <v>0.74338064292072847</v>
       </c>
       <c r="B84" s="2">
         <v>19</v>
@@ -3948,7 +3949,7 @@
     <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97565160948838014</v>
+        <v>0.45408834526750319</v>
       </c>
       <c r="B85" s="2">
         <v>73</v>
@@ -3975,7 +3976,7 @@
     <row r="86" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5887904264955415E-2</v>
+        <v>0.99767838919102081</v>
       </c>
       <c r="B86" s="2">
         <v>217</v>
@@ -3999,7 +4000,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10237711370764224</v>
+        <v>0.58773306971931993</v>
       </c>
       <c r="B87" s="2">
         <v>167</v>
@@ -4026,7 +4027,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81447392839474286</v>
+        <v>0.13114931516471251</v>
       </c>
       <c r="B88" s="2">
         <v>123</v>
@@ -4050,7 +4051,7 @@
     <row r="89" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53532728220336456</v>
+        <v>0.56424269629234203</v>
       </c>
       <c r="B89" s="2">
         <v>223</v>
@@ -4077,7 +4078,7 @@
     <row r="90" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25999519796003367</v>
+        <v>5.0469449431066349E-2</v>
       </c>
       <c r="B90" s="2">
         <v>20</v>
@@ -4101,7 +4102,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97722404801283025</v>
+        <v>0.77724210889606815</v>
       </c>
       <c r="B91" s="2">
         <v>107</v>
@@ -4125,7 +4126,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44946716495047934</v>
+        <v>0.36987058654629479</v>
       </c>
       <c r="B92" s="2">
         <v>180</v>
@@ -4146,7 +4147,7 @@
     <row r="93" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10537259453328673</v>
+        <v>0.30636797631746215</v>
       </c>
       <c r="B93" s="2">
         <v>231</v>
@@ -4167,7 +4168,7 @@
     <row r="94" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19965700334619207</v>
+        <v>0.75748085639150764</v>
       </c>
       <c r="B94" s="2">
         <v>153</v>
@@ -4191,7 +4192,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25918720045092736</v>
+        <v>4.3366545281915414E-2</v>
       </c>
       <c r="B95" s="2">
         <v>81</v>
@@ -4212,7 +4213,7 @@
     <row r="96" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4808008261555878E-2</v>
+        <v>8.2824040133908539E-2</v>
       </c>
       <c r="B96" s="2">
         <v>44</v>
@@ -4236,7 +4237,7 @@
     <row r="97" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26752976752285329</v>
+        <v>0.37960896102234731</v>
       </c>
       <c r="B97" s="2">
         <v>52</v>
@@ -4260,7 +4261,7 @@
     <row r="98" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62133122706810662</v>
+        <v>0.90590199822968009</v>
       </c>
       <c r="B98" s="2">
         <v>58</v>
@@ -4281,7 +4282,7 @@
     <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72303137973988263</v>
+        <v>0.15108508746493066</v>
       </c>
       <c r="B99" s="2">
         <v>208</v>
@@ -4302,7 +4303,7 @@
     <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59309799567527188</v>
+        <v>0.36389367426613406</v>
       </c>
       <c r="B100" s="2">
         <v>90</v>
@@ -4326,7 +4327,7 @@
     <row r="101" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46798507330685257</v>
+        <v>7.6056018540926473E-4</v>
       </c>
       <c r="B101" s="2">
         <v>157</v>
@@ -4350,7 +4351,7 @@
     <row r="102" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58632839007133197</v>
+        <v>0.38131228045053145</v>
       </c>
       <c r="B102" s="2">
         <v>38</v>
@@ -4371,7 +4372,7 @@
     <row r="103" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24637861912848469</v>
+        <v>0.38753996789202871</v>
       </c>
       <c r="B103" s="2">
         <v>57</v>
@@ -4392,7 +4393,7 @@
     <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11912010283348229</v>
+        <v>0.896258694517581</v>
       </c>
       <c r="B104" s="2">
         <v>83</v>
@@ -4413,7 +4414,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90503413392940391</v>
+        <v>0.69823028884561988</v>
       </c>
       <c r="B105" s="2">
         <v>121</v>
@@ -4434,7 +4435,7 @@
     <row r="106" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58046482600044302</v>
+        <v>0.36565633320171231</v>
       </c>
       <c r="B106" s="2">
         <v>40</v>
@@ -4455,7 +4456,7 @@
     <row r="107" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60848883284116351</v>
+        <v>0.12714734823868235</v>
       </c>
       <c r="B107" s="2">
         <v>141</v>
@@ -4479,7 +4480,7 @@
     <row r="108" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4991801206204699</v>
+        <v>0.28227777259450937</v>
       </c>
       <c r="B108" s="2">
         <v>267</v>
@@ -4506,7 +4507,7 @@
     <row r="109" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71177454918290006</v>
+        <v>7.5149767036874593E-2</v>
       </c>
       <c r="B109" s="2">
         <v>183</v>
@@ -4536,7 +4537,7 @@
     <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41629975927434604</v>
+        <v>0.74626621626708611</v>
       </c>
       <c r="B110" s="2">
         <v>110</v>
@@ -4563,7 +4564,7 @@
     <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62482385235350413</v>
+        <v>0.33758613627491052</v>
       </c>
       <c r="B111" s="2">
         <v>210</v>
@@ -4587,7 +4588,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28044065844101385</v>
+        <v>5.1922286059770895E-2</v>
       </c>
       <c r="B112" s="2">
         <v>254</v>
@@ -4611,7 +4612,7 @@
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73831067486080038</v>
+        <v>0.45625659461994783</v>
       </c>
       <c r="B113" s="2">
         <v>135</v>
@@ -4635,7 +4636,7 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7776170594128318E-2</v>
+        <v>0.50857332963459789</v>
       </c>
       <c r="B114" s="2">
         <v>149</v>
@@ -4659,7 +4660,7 @@
     <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75310490821602638</v>
+        <v>0.53206654878750714</v>
       </c>
       <c r="B115" s="2">
         <v>260</v>
@@ -4686,7 +4687,7 @@
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15069490799674934</v>
+        <v>0.11717214051023483</v>
       </c>
       <c r="B116" s="2">
         <v>285</v>
@@ -4710,7 +4711,7 @@
     <row r="117" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73882323157620977</v>
+        <v>0.41465641235899686</v>
       </c>
       <c r="B117" s="2">
         <v>228</v>
@@ -4734,7 +4735,7 @@
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21835014293158894</v>
+        <v>4.1985864337639844E-2</v>
       </c>
       <c r="B118" s="2">
         <v>98</v>
@@ -4758,7 +4759,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62246675145948149</v>
+        <v>0.41934988240195625</v>
       </c>
       <c r="B119" s="2">
         <v>115</v>
@@ -4782,7 +4783,7 @@
     <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6147150553638143E-2</v>
+        <v>0.30182837010542118</v>
       </c>
       <c r="B120" s="2">
         <v>27</v>
@@ -4809,7 +4810,7 @@
     <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57603789262418137</v>
+        <v>0.99369199006978026</v>
       </c>
       <c r="B121" s="2">
         <v>275</v>
@@ -4836,7 +4837,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63139873607164321</v>
+        <v>0.43521354304965698</v>
       </c>
       <c r="B122" s="2">
         <v>106</v>
@@ -4860,7 +4861,7 @@
     <row r="123" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83565947912378213</v>
+        <v>0.22366128897890569</v>
       </c>
       <c r="B123" s="2">
         <v>89</v>
@@ -4884,7 +4885,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79554209066691162</v>
+        <v>0.70447871847900512</v>
       </c>
       <c r="B124" s="2">
         <v>140</v>
@@ -4908,7 +4909,7 @@
     <row r="125" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31563039565947448</v>
+        <v>0.80363053230232728</v>
       </c>
       <c r="B125" s="2">
         <v>103</v>
@@ -4935,7 +4936,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3757335901424304E-2</v>
+        <v>0.94428810548697917</v>
       </c>
       <c r="B126" s="2">
         <v>173</v>
@@ -4956,7 +4957,7 @@
     <row r="127" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44012333956740823</v>
+        <v>0.98616776109691073</v>
       </c>
       <c r="B127" s="2">
         <v>295</v>
@@ -4983,7 +4984,7 @@
     <row r="128" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89505756006201964</v>
+        <v>0.94282578046131926</v>
       </c>
       <c r="B128" s="2">
         <v>160</v>
@@ -5007,7 +5008,7 @@
     <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16585774485566285</v>
+        <v>5.7381650161123066E-2</v>
       </c>
       <c r="B129" s="2">
         <v>18</v>
@@ -5031,7 +5032,7 @@
     <row r="130" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.51792417392345202</v>
+        <v>0.71992988367424571</v>
       </c>
       <c r="B130" s="2">
         <v>158</v>
@@ -5055,7 +5056,7 @@
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74940371511945247</v>
+        <v>0.37098567322977116</v>
       </c>
       <c r="B131" s="2">
         <v>143</v>
@@ -5082,7 +5083,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52154421081596625</v>
+        <v>0.42403556201285719</v>
       </c>
       <c r="B132" s="2">
         <v>181</v>
@@ -5106,7 +5107,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53141990485786317</v>
+        <v>0.73185757695421905</v>
       </c>
       <c r="B133" s="2">
         <v>126</v>
@@ -5127,7 +5128,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15365891517514618</v>
+        <v>0.38486249872722911</v>
       </c>
       <c r="B134" s="2">
         <v>272</v>
@@ -5151,7 +5152,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.562449482355587</v>
+        <v>0.46479037534960499</v>
       </c>
       <c r="B135" s="2">
         <v>136</v>
@@ -5175,7 +5176,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24256439963116272</v>
+        <v>0.71666608076452709</v>
       </c>
       <c r="B136" s="2">
         <v>105</v>
@@ -5202,7 +5203,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44867005018583173</v>
+        <v>0.79841836054271209</v>
       </c>
       <c r="B137" s="2">
         <v>261</v>
@@ -5226,7 +5227,7 @@
     <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91144319020384734</v>
+        <v>0.35314514553351972</v>
       </c>
       <c r="B138" s="2">
         <v>99</v>
@@ -5253,7 +5254,7 @@
     <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62268180103352055</v>
+        <v>8.7927731010990828E-2</v>
       </c>
       <c r="B139" s="2">
         <v>12</v>
@@ -5277,7 +5278,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11192365055535203</v>
+        <v>0.5740442878454135</v>
       </c>
       <c r="B140" s="2">
         <v>69</v>
@@ -5304,7 +5305,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3714027027670124E-2</v>
+        <v>0.96747908492369994</v>
       </c>
       <c r="B141" s="2">
         <v>262</v>
@@ -5331,7 +5332,7 @@
     <row r="142" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85389810031696634</v>
+        <v>0.65014872355821862</v>
       </c>
       <c r="B142" s="2">
         <v>300</v>
@@ -5358,7 +5359,7 @@
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91253398388226115</v>
+        <v>0.67630513199960496</v>
       </c>
       <c r="B143" s="2">
         <v>255</v>
@@ -5379,7 +5380,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95579995500450776</v>
+        <v>0.45615584842350421</v>
       </c>
       <c r="B144" s="2">
         <v>286</v>
@@ -5406,7 +5407,7 @@
     <row r="145" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24391698573801002</v>
+        <v>0.63266357903253123</v>
       </c>
       <c r="B145" s="2">
         <v>15</v>
@@ -5430,7 +5431,7 @@
     <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20059336701584163</v>
+        <v>0.76611187000869196</v>
       </c>
       <c r="B146" s="2">
         <v>170</v>
@@ -5454,7 +5455,7 @@
     <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65519555927122308</v>
+        <v>0.91277410261118141</v>
       </c>
       <c r="B147" s="2">
         <v>85</v>
@@ -5481,7 +5482,7 @@
     <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12425796950700996</v>
+        <v>0.69357085423787335</v>
       </c>
       <c r="B148" s="2">
         <v>66</v>
@@ -5502,7 +5503,7 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95923652614914179</v>
+        <v>0.97865268056952992</v>
       </c>
       <c r="B149" s="2">
         <v>147</v>
@@ -5526,7 +5527,7 @@
     <row r="150" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74581899538217544</v>
+        <v>0.33355333824212596</v>
       </c>
       <c r="B150" s="2">
         <v>49</v>
@@ -5553,7 +5554,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91871179873504705</v>
+        <v>0.4281758163721151</v>
       </c>
       <c r="B151" s="2">
         <v>163</v>
@@ -5574,7 +5575,7 @@
     <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2346854173568006</v>
+        <v>0.63282307334547228</v>
       </c>
       <c r="B152" s="2">
         <v>240</v>
@@ -5598,7 +5599,7 @@
     <row r="153" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11541540985520171</v>
+        <v>0.58912018291842649</v>
       </c>
       <c r="B153" s="2">
         <v>234</v>
@@ -5622,7 +5623,7 @@
     <row r="154" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37800184380419521</v>
+        <v>0.61817297836126817</v>
       </c>
       <c r="B154" s="2">
         <v>226</v>
@@ -5649,7 +5650,7 @@
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55506114375496962</v>
+        <v>0.24531140809632523</v>
       </c>
       <c r="B155" s="2">
         <v>250</v>
@@ -5670,7 +5671,7 @@
     <row r="156" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5749519971083189</v>
+        <v>0.29332923783973708</v>
       </c>
       <c r="B156" s="2">
         <v>30</v>
@@ -5697,7 +5698,7 @@
     <row r="157" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16560430843327678</v>
+        <v>0.45738423342200363</v>
       </c>
       <c r="B157" s="2">
         <v>114</v>
@@ -5724,7 +5725,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42209190479867675</v>
+        <v>0.75450176960178483</v>
       </c>
       <c r="B158" s="2">
         <v>148</v>
@@ -5748,7 +5749,7 @@
     <row r="159" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17348054168259419</v>
+        <v>0.10033760539660441</v>
       </c>
       <c r="B159" s="2">
         <v>237</v>
@@ -5769,7 +5770,7 @@
     <row r="160" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50397061600219062</v>
+        <v>0.50584298922992876</v>
       </c>
       <c r="B160" s="2">
         <v>45</v>
@@ -5793,7 +5794,7 @@
     <row r="161" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85874169045964577</v>
+        <v>4.4001771202247242E-2</v>
       </c>
       <c r="B161" s="2">
         <v>244</v>
@@ -5820,7 +5821,7 @@
     <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58995715986879449</v>
+        <v>6.8006600968727904E-2</v>
       </c>
       <c r="B162" s="2">
         <v>182</v>
@@ -5841,7 +5842,7 @@
     <row r="163" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68223867127997262</v>
+        <v>0.87334278884824212</v>
       </c>
       <c r="B163" s="2">
         <v>204</v>
@@ -5865,7 +5866,7 @@
     <row r="164" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37716035706826478</v>
+        <v>9.5801451689134454E-2</v>
       </c>
       <c r="B164" s="2">
         <v>290</v>
@@ -5892,7 +5893,7 @@
     <row r="165" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90919964388656016</v>
+        <v>0.70752969770144525</v>
       </c>
       <c r="B165" s="2">
         <v>296</v>
@@ -5919,7 +5920,7 @@
     <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15629131184368283</v>
+        <v>0.81194376942307811</v>
       </c>
       <c r="B166" s="2">
         <v>16</v>
@@ -5940,7 +5941,7 @@
     <row r="167" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6516670999566142</v>
+        <v>0.77673849200602718</v>
       </c>
       <c r="B167" s="2">
         <v>269</v>
@@ -5970,7 +5971,7 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68819963400463158</v>
+        <v>0.49118163701882789</v>
       </c>
       <c r="B168" s="2">
         <v>265</v>
@@ -5991,7 +5992,7 @@
     <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41792609586048701</v>
+        <v>0.38491197910019348</v>
       </c>
       <c r="B169" s="2">
         <v>142</v>
@@ -6015,7 +6016,7 @@
     <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15226064661102423</v>
+        <v>0.21032103447155015</v>
       </c>
       <c r="B170" s="2">
         <v>75</v>
@@ -6042,7 +6043,7 @@
     <row r="171" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3097273186295818</v>
+        <v>0.74534860266956338</v>
       </c>
       <c r="B171" s="2">
         <v>118</v>
@@ -6069,7 +6070,7 @@
     <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97571494423554916</v>
+        <v>0.24107021087216796</v>
       </c>
       <c r="B172" s="2">
         <v>128</v>
@@ -6093,7 +6094,7 @@
     <row r="173" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43563721581551706</v>
+        <v>0.6547423833913405</v>
       </c>
       <c r="B173" s="2">
         <v>289</v>
@@ -6120,7 +6121,7 @@
     <row r="174" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.570288300915784E-2</v>
+        <v>0.49010314728692972</v>
       </c>
       <c r="B174" s="2">
         <v>224</v>
@@ -6141,7 +6142,7 @@
     <row r="175" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.675728342419051</v>
+        <v>0.68789592419093937</v>
       </c>
       <c r="B175" s="2">
         <v>225</v>
@@ -6165,7 +6166,7 @@
     <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10831357647170103</v>
+        <v>3.3598576795155211E-3</v>
       </c>
       <c r="B176" s="2">
         <v>280</v>
@@ -6189,7 +6190,7 @@
     <row r="177" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77932151744715206</v>
+        <v>0.82690229860810016</v>
       </c>
       <c r="B177" s="2">
         <v>259</v>
@@ -6210,7 +6211,7 @@
     <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54790345008526564</v>
+        <v>0.90735574689162768</v>
       </c>
       <c r="B178" s="2">
         <v>281</v>
@@ -6234,7 +6235,7 @@
     <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18116917938540356</v>
+        <v>4.864479163925961E-3</v>
       </c>
       <c r="B179" s="2">
         <v>172</v>
@@ -6255,7 +6256,7 @@
     <row r="180" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8867646086701565</v>
+        <v>0.86254439839963082</v>
       </c>
       <c r="B180" s="2">
         <v>72</v>
@@ -6279,7 +6280,7 @@
     <row r="181" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0770108366693285E-2</v>
+        <v>0.77382846573895203</v>
       </c>
       <c r="B181" s="2">
         <v>10</v>
@@ -6309,7 +6310,7 @@
     <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84595643155507849</v>
+        <v>0.13781758485223339</v>
       </c>
       <c r="B182" s="2">
         <v>37</v>
@@ -6330,7 +6331,7 @@
     <row r="183" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48694003481499593</v>
+        <v>0.41645928507066476</v>
       </c>
       <c r="B183" s="2">
         <v>222</v>
@@ -6354,7 +6355,7 @@
     <row r="184" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70648755933845986</v>
+        <v>0.16678488496235888</v>
       </c>
       <c r="B184" s="2">
         <v>22</v>
@@ -6378,7 +6379,7 @@
     <row r="185" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45814805921995416</v>
+        <v>0.36605425796279445</v>
       </c>
       <c r="B185" s="2">
         <v>2</v>
@@ -6402,7 +6403,7 @@
     <row r="186" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63176332457960982</v>
+        <v>0.97503619423309318</v>
       </c>
       <c r="B186" s="2">
         <v>203</v>
@@ -6426,7 +6427,7 @@
     <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.433776981721544</v>
+        <v>0.89034929216694203</v>
       </c>
       <c r="B187" s="2">
         <v>220</v>
@@ -6447,7 +6448,7 @@
     <row r="188" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98437754036687108</v>
+        <v>7.8060443983479333E-2</v>
       </c>
       <c r="B188" s="2">
         <v>197</v>
@@ -6471,7 +6472,7 @@
     <row r="189" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6677893396416883</v>
+        <v>9.1994480835474568E-2</v>
       </c>
       <c r="B189" s="2">
         <v>299</v>
@@ -6498,7 +6499,7 @@
     <row r="190" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78392674615405389</v>
+        <v>0.59905066750895775</v>
       </c>
       <c r="B190" s="2">
         <v>14</v>
@@ -6519,7 +6520,7 @@
     <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30678116256570997</v>
+        <v>0.29516333655110938</v>
       </c>
       <c r="B191" s="2">
         <v>193</v>
@@ -6543,7 +6544,7 @@
     <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9170370347728642E-2</v>
+        <v>0.70090089684943879</v>
       </c>
       <c r="B192" s="2">
         <v>219</v>
@@ -6567,7 +6568,7 @@
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89276747811364321</v>
+        <v>0.88783265530186384</v>
       </c>
       <c r="B193" s="2">
         <v>171</v>
@@ -6594,7 +6595,7 @@
     <row r="194" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.71263991744397659</v>
+        <v>0.21629052372127855</v>
       </c>
       <c r="B194" s="2">
         <v>39</v>
@@ -6618,7 +6619,7 @@
     <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26893229658567841</v>
+        <v>0.31242440292071194</v>
       </c>
       <c r="B195" s="2">
         <v>146</v>
@@ -6642,7 +6643,7 @@
     <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64139555629666489</v>
+        <v>0.63006255374929443</v>
       </c>
       <c r="B196" s="2">
         <v>65</v>
@@ -6666,7 +6667,7 @@
     <row r="197" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60915381783532463</v>
+        <v>0.55130041203259772</v>
       </c>
       <c r="B197" s="2">
         <v>213</v>
@@ -6690,7 +6691,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25508030975555951</v>
+        <v>1.0100190403862896E-2</v>
       </c>
       <c r="B198" s="2">
         <v>221</v>
@@ -6714,7 +6715,7 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2326967698847224E-2</v>
+        <v>2.8007190034328722E-2</v>
       </c>
       <c r="B199" s="2">
         <v>94</v>
@@ -6735,7 +6736,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59059189742279672</v>
+        <v>0.71703780094447911</v>
       </c>
       <c r="B200" s="2">
         <v>209</v>
@@ -6762,7 +6763,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71823324775626884</v>
+        <v>0.80649432287782019</v>
       </c>
       <c r="B201" s="2">
         <v>138</v>
@@ -6783,7 +6784,7 @@
     <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78720817825824596</v>
+        <v>0.77865387254237406</v>
       </c>
       <c r="B202" s="2">
         <v>232</v>
@@ -6807,7 +6808,7 @@
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56001254059782279</v>
+        <v>0.53117295408905507</v>
       </c>
       <c r="B203" s="2">
         <v>122</v>
@@ -6828,7 +6829,7 @@
     <row r="204" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4823479369784454E-2</v>
+        <v>0.63368390452364987</v>
       </c>
       <c r="B204" s="2">
         <v>61</v>
@@ -6855,7 +6856,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44182895301579961</v>
+        <v>8.8939871487529687E-2</v>
       </c>
       <c r="B205" s="2">
         <v>179</v>
@@ -6876,7 +6877,7 @@
     <row r="206" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6301285971032464E-2</v>
+        <v>0.50939860685091853</v>
       </c>
       <c r="B206" s="2">
         <v>88</v>
@@ -6900,7 +6901,7 @@
     <row r="207" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67106987260628936</v>
+        <v>8.0922493813601504E-2</v>
       </c>
       <c r="B207" s="2">
         <v>159</v>
@@ -6924,7 +6925,7 @@
     <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25674463923277568</v>
+        <v>0.18768847212588269</v>
       </c>
       <c r="B208" s="2">
         <v>102</v>
@@ -6948,7 +6949,7 @@
     <row r="209" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45509615764825007</v>
+        <v>0.74349375223648329</v>
       </c>
       <c r="B209" s="2">
         <v>46</v>
@@ -6975,7 +6976,7 @@
     <row r="210" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97360361519864458</v>
+        <v>0.89479979598420534</v>
       </c>
       <c r="B210" s="2">
         <v>294</v>
@@ -6996,7 +6997,7 @@
     <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55857718744789753</v>
+        <v>0.86419626151614337</v>
       </c>
       <c r="B211" s="2">
         <v>101</v>
@@ -7023,7 +7024,7 @@
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8765349789349237E-3</v>
+        <v>0.98631270079779143</v>
       </c>
       <c r="B212" s="2">
         <v>266</v>
@@ -7044,7 +7045,7 @@
     <row r="213" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73479435683440852</v>
+        <v>0.83814915797999312</v>
       </c>
       <c r="B213" s="2">
         <v>291</v>
@@ -7068,7 +7069,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78113573425050364</v>
+        <v>0.50702816648584292</v>
       </c>
       <c r="B214" s="2">
         <v>178</v>
@@ -7089,7 +7090,7 @@
     <row r="215" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42084577313348359</v>
+        <v>0.70791471681284235</v>
       </c>
       <c r="B215" s="2">
         <v>301</v>
@@ -7116,7 +7117,7 @@
     <row r="216" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37712523882497218</v>
+        <v>0.35716457033598703</v>
       </c>
       <c r="B216" s="2">
         <v>29</v>
@@ -7137,7 +7138,7 @@
     <row r="217" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58347635238954709</v>
+        <v>0.16663007839518806</v>
       </c>
       <c r="B217" s="2">
         <v>188</v>
@@ -7158,7 +7159,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20094515713055583</v>
+        <v>0.89410809549283821</v>
       </c>
       <c r="B218" s="2">
         <v>168</v>
@@ -7182,7 +7183,7 @@
     <row r="219" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67038046145407681</v>
+        <v>0.76744068720123582</v>
       </c>
       <c r="B219" s="2">
         <v>212</v>
@@ -7203,7 +7204,7 @@
     <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93709033352346216</v>
+        <v>0.60578348968491413</v>
       </c>
       <c r="B220" s="2">
         <v>252</v>
@@ -7230,7 +7231,7 @@
     <row r="221" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.45612279372709E-3</v>
+        <v>0.58279290974727038</v>
       </c>
       <c r="B221" s="2">
         <v>152</v>
@@ -7254,7 +7255,7 @@
     <row r="222" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48726529863963564</v>
+        <v>0.6730659218904359</v>
       </c>
       <c r="B222" s="2">
         <v>51</v>
@@ -7278,7 +7279,7 @@
     <row r="223" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61239431023768609</v>
+        <v>0.45626664923308591</v>
       </c>
       <c r="B223" s="2">
         <v>235</v>
@@ -7305,7 +7306,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26403075899744211</v>
+        <v>0.35319103055742462</v>
       </c>
       <c r="B224" s="2">
         <v>79</v>
@@ -7326,7 +7327,7 @@
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87420073356178019</v>
+        <v>0.34957412023837431</v>
       </c>
       <c r="B225" s="2">
         <v>144</v>
@@ -7350,7 +7351,7 @@
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81454387212873658</v>
+        <v>0.1111944115987531</v>
       </c>
       <c r="B226" s="2">
         <v>137</v>
@@ -7371,7 +7372,7 @@
     <row r="227" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2886473548505778</v>
+        <v>0.42771347136998839</v>
       </c>
       <c r="B227" s="2">
         <v>35</v>
@@ -7392,7 +7393,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2286197905215398</v>
+        <v>0.40239854377261808</v>
       </c>
       <c r="B228" s="2">
         <v>206</v>
@@ -7416,7 +7417,7 @@
     <row r="229" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38458294481073363</v>
+        <v>0.97406504599562216</v>
       </c>
       <c r="B229" s="2">
         <v>186</v>
@@ -7437,7 +7438,7 @@
     <row r="230" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67414506478236891</v>
+        <v>0.91343932607486444</v>
       </c>
       <c r="B230" s="2">
         <v>4</v>
@@ -7464,7 +7465,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43068358728092748</v>
+        <v>0.86721005609943369</v>
       </c>
       <c r="B231" s="2">
         <v>169</v>
@@ -7485,7 +7486,7 @@
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68614997024118429</v>
+        <v>0.47326414144475271</v>
       </c>
       <c r="B232" s="2">
         <v>130</v>
@@ -7506,7 +7507,7 @@
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5589808476318886</v>
+        <v>0.10422096475092812</v>
       </c>
       <c r="B233" s="2">
         <v>91</v>
@@ -7527,7 +7528,7 @@
     <row r="234" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61339584904897093</v>
+        <v>0.84277383868900757</v>
       </c>
       <c r="B234" s="2">
         <v>195</v>
@@ -7551,7 +7552,7 @@
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10710794705835991</v>
+        <v>0.78946899747227528</v>
       </c>
       <c r="B235" s="2">
         <v>263</v>
@@ -7578,7 +7579,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14269173075057795</v>
+        <v>0.68411006643079875</v>
       </c>
       <c r="B236" s="2">
         <v>53</v>
@@ -7599,7 +7600,7 @@
     <row r="237" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8535309019420444</v>
+        <v>0.68011965187286938</v>
       </c>
       <c r="B237" s="2">
         <v>134</v>
@@ -7623,7 +7624,7 @@
     <row r="238" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5215372360695163E-2</v>
+        <v>0.89981416271173287</v>
       </c>
       <c r="B238" s="2">
         <v>253</v>
@@ -7647,7 +7648,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34147436807495635</v>
+        <v>4.830316987738803E-2</v>
       </c>
       <c r="B239" s="2">
         <v>192</v>
@@ -7671,7 +7672,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38477954003213644</v>
+        <v>0.57611343635541434</v>
       </c>
       <c r="B240" s="2">
         <v>34</v>
@@ -7692,7 +7693,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97038417644744368</v>
+        <v>0.86781892208542666</v>
       </c>
       <c r="B241" s="2">
         <v>176</v>
@@ -7716,7 +7717,7 @@
     <row r="242" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8612164113578199</v>
+        <v>0.33527450886022758</v>
       </c>
       <c r="B242" s="2">
         <v>13</v>
@@ -7740,7 +7741,7 @@
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87095944320274543</v>
+        <v>0.94578861473724274</v>
       </c>
       <c r="B243" s="2">
         <v>273</v>
@@ -7764,7 +7765,7 @@
     <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87049224594707919</v>
+        <v>0.59252883092364383</v>
       </c>
       <c r="B244" s="2">
         <v>28</v>
@@ -7788,7 +7789,7 @@
     <row r="245" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92528511230716237</v>
+        <v>0.87315168919591291</v>
       </c>
       <c r="B245" s="2">
         <v>3</v>
@@ -7809,7 +7810,7 @@
     <row r="246" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0353281254847828E-2</v>
+        <v>0.26549331304766843</v>
       </c>
       <c r="B246" s="2">
         <v>236</v>
@@ -7830,7 +7831,7 @@
     <row r="247" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68861997020360644</v>
+        <v>0.67475028615442212</v>
       </c>
       <c r="B247" s="2">
         <v>132</v>
@@ -7854,7 +7855,7 @@
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21668005526949285</v>
+        <v>0.47496080993091971</v>
       </c>
       <c r="B248" s="2">
         <v>166</v>
@@ -7878,7 +7879,7 @@
     <row r="249" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88355430905743737</v>
+        <v>0.88242088484563552</v>
       </c>
       <c r="B249" s="2">
         <v>155</v>
@@ -7902,7 +7903,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38896549592122864</v>
+        <v>0.72672839040641501</v>
       </c>
       <c r="B250" s="2">
         <v>191</v>
@@ -7929,7 +7930,7 @@
     <row r="251" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22836037625974848</v>
+        <v>0.53466856381444927</v>
       </c>
       <c r="B251" s="2">
         <v>113</v>
@@ -7956,7 +7957,7 @@
     <row r="252" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8347679469473861</v>
+        <v>0.83358436248565759</v>
       </c>
       <c r="B252" s="2">
         <v>112</v>
@@ -7980,7 +7981,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80234194524874358</v>
+        <v>0.51374814542095304</v>
       </c>
       <c r="B253" s="2">
         <v>54</v>
@@ -8004,7 +8005,7 @@
     <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16513263194486161</v>
+        <v>0.55236380641526195</v>
       </c>
       <c r="B254" s="2">
         <v>187</v>
@@ -8028,7 +8029,7 @@
     <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93006757411489271</v>
+        <v>0.51927495212701102</v>
       </c>
       <c r="B255" s="2">
         <v>119</v>
@@ -8049,7 +8050,7 @@
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35687649864111537</v>
+        <v>0.90835452259880778</v>
       </c>
       <c r="B256" s="2">
         <v>84</v>
@@ -8070,7 +8071,7 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7635722194024287</v>
+        <v>0.25152619825850286</v>
       </c>
       <c r="B257" s="2">
         <v>125</v>
@@ -8091,7 +8092,7 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A302" ca="1" si="4">RAND()</f>
-        <v>8.1530731979469362E-2</v>
+        <v>0.56227332693028986</v>
       </c>
       <c r="B258" s="2">
         <v>59</v>
@@ -8115,7 +8116,7 @@
     <row r="259" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35598188700713773</v>
+        <v>0.49952558977825767</v>
       </c>
       <c r="B259" s="2">
         <v>63</v>
@@ -8142,7 +8143,7 @@
     <row r="260" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20265812533786642</v>
+        <v>0.87680393458297168</v>
       </c>
       <c r="B260" s="2">
         <v>230</v>
@@ -8166,7 +8167,7 @@
     <row r="261" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9073501453176376E-2</v>
+        <v>0.70846386182934074</v>
       </c>
       <c r="B261" s="2">
         <v>227</v>
@@ -8190,7 +8191,7 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53559531807918315</v>
+        <v>0.42485228171908618</v>
       </c>
       <c r="B262" s="2">
         <v>80</v>
@@ -8211,7 +8212,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29955422417012134</v>
+        <v>0.59732284900728927</v>
       </c>
       <c r="B263" s="2">
         <v>242</v>
@@ -8238,7 +8239,7 @@
     <row r="264" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54024915900043791</v>
+        <v>0.57182520458419861</v>
       </c>
       <c r="B264" s="2">
         <v>47</v>
@@ -8265,7 +8266,7 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9499616483789994E-2</v>
+        <v>0.52179963750992508</v>
       </c>
       <c r="B265" s="2">
         <v>177</v>
@@ -8289,7 +8290,7 @@
     <row r="266" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92034983945569193</v>
+        <v>0.78651374007078989</v>
       </c>
       <c r="B266" s="2">
         <v>154</v>
@@ -8316,7 +8317,7 @@
     <row r="267" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5923643065962737</v>
+        <v>0.52143265047526188</v>
       </c>
       <c r="B267" s="2">
         <v>116</v>
@@ -8337,7 +8338,7 @@
     <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3035764204077811</v>
+        <v>0.76550406894087242</v>
       </c>
       <c r="B268" s="2">
         <v>150</v>
@@ -8358,7 +8359,7 @@
     <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20973889753215835</v>
+        <v>8.1856175103457662E-2</v>
       </c>
       <c r="B269" s="2">
         <v>274</v>
@@ -8385,7 +8386,7 @@
     <row r="270" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48815334916207076</v>
+        <v>0.43503520504553883</v>
       </c>
       <c r="B270" s="2">
         <v>60</v>
@@ -8409,7 +8410,7 @@
     <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6017883947402598</v>
+        <v>0.52277930737956757</v>
       </c>
       <c r="B271" s="2">
         <v>247</v>
@@ -8436,7 +8437,7 @@
     <row r="272" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19124833186847856</v>
+        <v>0.61257637144109933</v>
       </c>
       <c r="B272" s="2">
         <v>276</v>
@@ -8460,7 +8461,7 @@
     <row r="273" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89574876140518622</v>
+        <v>0.82540529819955655</v>
       </c>
       <c r="B273" s="2">
         <v>198</v>
@@ -8481,7 +8482,7 @@
     <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78400558000552178</v>
+        <v>0.52498053755109697</v>
       </c>
       <c r="B274" s="2">
         <v>283</v>
@@ -8505,7 +8506,7 @@
     <row r="275" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65845779398370408</v>
+        <v>0.63081455369283657</v>
       </c>
       <c r="B275" s="2">
         <v>131</v>
@@ -8535,7 +8536,7 @@
     <row r="276" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87593270807067003</v>
+        <v>0.1364232184924471</v>
       </c>
       <c r="B276" s="2">
         <v>120</v>
@@ -8559,7 +8560,7 @@
     <row r="277" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65210616827644508</v>
+        <v>0.92233592997294556</v>
       </c>
       <c r="B277" s="2">
         <v>109</v>
@@ -8583,7 +8584,7 @@
     <row r="278" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20401435310155625</v>
+        <v>0.49926700863444451</v>
       </c>
       <c r="B278" s="2">
         <v>162</v>
@@ -8610,7 +8611,7 @@
     <row r="279" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84649662972910644</v>
+        <v>0.42520509384584015</v>
       </c>
       <c r="B279" s="2">
         <v>241</v>
@@ -8640,7 +8641,7 @@
     <row r="280" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51423340072557833</v>
+        <v>0.71771168263471308</v>
       </c>
       <c r="B280" s="2">
         <v>11</v>
@@ -8664,7 +8665,7 @@
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10712842206094908</v>
+        <v>0.73461415378111949</v>
       </c>
       <c r="B281" s="2">
         <v>77</v>
@@ -8688,7 +8689,7 @@
     <row r="282" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10536512416844257</v>
+        <v>0.70045854779745864</v>
       </c>
       <c r="B282" s="2">
         <v>96</v>
@@ -8712,7 +8713,7 @@
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77986668274867876</v>
+        <v>0.94088374420757903</v>
       </c>
       <c r="B283" s="2">
         <v>139</v>
@@ -8736,7 +8737,7 @@
     <row r="284" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38128594499999358</v>
+        <v>0.93885562118241428</v>
       </c>
       <c r="B284" s="2">
         <v>108</v>
@@ -8757,7 +8758,7 @@
     <row r="285" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78994934163300301</v>
+        <v>0.93952339216091563</v>
       </c>
       <c r="B285" s="2">
         <v>129</v>
@@ -8778,7 +8779,7 @@
     <row r="286" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95729201934386265</v>
+        <v>0.55583867852266089</v>
       </c>
       <c r="B286" s="2">
         <v>218</v>
@@ -8799,7 +8800,7 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98552587509648759</v>
+        <v>0.21222030032318462</v>
       </c>
       <c r="B287" s="2">
         <v>175</v>
@@ -8820,7 +8821,7 @@
     <row r="288" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62708980514648649</v>
+        <v>0.31278720675029392</v>
       </c>
       <c r="B288" s="2">
         <v>211</v>
@@ -8844,7 +8845,7 @@
     <row r="289" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28726340910333059</v>
+        <v>0.41645421984079345</v>
       </c>
       <c r="B289" s="2">
         <v>205</v>
@@ -8865,7 +8866,7 @@
     <row r="290" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87466603946505395</v>
+        <v>0.24249084524572451</v>
       </c>
       <c r="B290" s="2">
         <v>199</v>
@@ -8886,7 +8887,7 @@
     <row r="291" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26045189959094894</v>
+        <v>0.22641293179239597</v>
       </c>
       <c r="B291" s="2">
         <v>292</v>
@@ -8913,7 +8914,7 @@
     <row r="292" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83854279780967755</v>
+        <v>0.8363358734354932</v>
       </c>
       <c r="B292" s="2">
         <v>229</v>
@@ -8937,7 +8938,7 @@
     <row r="293" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23481539194718903</v>
+        <v>6.7086221031463E-2</v>
       </c>
       <c r="B293" s="2">
         <v>43</v>
@@ -8967,7 +8968,7 @@
     <row r="294" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52589720858590505</v>
+        <v>0.82321756312787053</v>
       </c>
       <c r="B294" s="2">
         <v>293</v>
@@ -8991,7 +8992,7 @@
     <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75590560119303807</v>
+        <v>0.89730976172559274</v>
       </c>
       <c r="B295" s="2">
         <v>257</v>
@@ -9012,7 +9013,7 @@
     <row r="296" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18936874052244757</v>
+        <v>0.95908880272972663</v>
       </c>
       <c r="B296" s="2">
         <v>277</v>
@@ -9033,7 +9034,7 @@
     <row r="297" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55900995242061691</v>
+        <v>0.64949570468263573</v>
       </c>
       <c r="B297" s="2">
         <v>50</v>
@@ -9057,7 +9058,7 @@
     <row r="298" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97162801588686964</v>
+        <v>0.34619423378321468</v>
       </c>
       <c r="B298" s="2">
         <v>145</v>
@@ -9081,7 +9082,7 @@
     <row r="299" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2485805385502098E-2</v>
+        <v>0.76428389434075938</v>
       </c>
       <c r="B299" s="2">
         <v>287</v>
@@ -9105,7 +9106,7 @@
     <row r="300" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6296240900363124E-2</v>
+        <v>0.74629856157582208</v>
       </c>
       <c r="B300" s="2">
         <v>5</v>
@@ -9132,7 +9133,7 @@
     <row r="301" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86984390695483238</v>
+        <v>0.40394440128430231</v>
       </c>
       <c r="B301" s="2">
         <v>238</v>
@@ -9156,7 +9157,7 @@
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4990136926797516</v>
+        <v>0.91086146252827338</v>
       </c>
       <c r="B302" s="2">
         <v>95</v>
@@ -9410,7 +9411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A288" workbookViewId="0">
       <selection activeCell="A378" sqref="A303:XFD378"/>
     </sheetView>
   </sheetViews>
